--- a/Outros/REQUISITOS .xlsx
+++ b/Outros/REQUISITOS .xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallace.correa\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86EAA22-742B-4198-B422-4E1B0A33D647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>FUNCIONAIS</t>
   </si>
@@ -51,9 +57,6 @@
     <t>Os usuários devem ser capazes de visualizar os horários disponíveis e agendar atendimentos de forma online.</t>
   </si>
   <si>
-    <t>A plataforma deve proporcionar uma experiência de uso intuitiva, com instruções claras e suporte disponível para resolver dúvidas dos usuários.</t>
-  </si>
-  <si>
     <t>A solução deve ser compatível com diferentes dispositivos e navegadores, permitindo o acesso tanto em computadores quanto em dispositivos móveis.</t>
   </si>
   <si>
@@ -69,9 +72,6 @@
     <t>Usuários devem conseguir procurar por serviços específicos oferecidos pelo NAF dentro da plataforma.</t>
   </si>
   <si>
-    <t>Os administradores do NAF devem poder configurar e gerenciar a disponibilidade de horários e atendimentos.</t>
-  </si>
-  <si>
     <t>O sistema deve enviar e-mails automáticos de confirmação e lembrete de agendamentos para os usuários.</t>
   </si>
   <si>
@@ -85,13 +85,16 @@
   </si>
   <si>
     <t>Rafaella Pringi de Oliveira Andrade</t>
+  </si>
+  <si>
+    <t>A plataforma deve proporcionar uma experiência de uso intuitiva, com instruções claras.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -339,6 +342,54 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -379,45 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,21 +737,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="N14" sqref="N14:X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -749,29 +761,29 @@
     <col min="24" max="24" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,19 +791,19 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,317 +811,301 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="20" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="9" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="11"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="14"/>
-    </row>
-    <row r="10" spans="1:24" ht="18.75">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="27"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="30"/>
+    </row>
+    <row r="10" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-    </row>
-    <row r="11" spans="1:24" ht="32.25" customHeight="1">
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+    </row>
+    <row r="11" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="B11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="5">
         <v>1</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="8"/>
-    </row>
-    <row r="12" spans="1:24" ht="30" customHeight="1">
+      <c r="N11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="24"/>
+    </row>
+    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="5">
         <v>2</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="8"/>
-    </row>
-    <row r="13" spans="1:24" ht="33.75" customHeight="1">
+      <c r="N12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="24"/>
+    </row>
+    <row r="13" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="5">
         <v>3</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="8"/>
-    </row>
-    <row r="14" spans="1:24" ht="36" customHeight="1">
+      <c r="N13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="24"/>
+    </row>
+    <row r="14" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>4</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="5">
         <v>4</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="8"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="N14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="24"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
+      <c r="B15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="5">
         <v>5</v>
       </c>
-      <c r="N15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="17"/>
-    </row>
-    <row r="16" spans="1:24" ht="32.25" customHeight="1">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
+      <c r="N15" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="33"/>
+    </row>
+    <row r="16" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M16" s="5">
         <v>6</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="8"/>
+      <c r="N16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A3:B6"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="N16:X16"/>
     <mergeCell ref="A8:X9"/>
     <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B15:L15"/>
     <mergeCell ref="N10:X10"/>
     <mergeCell ref="N11:X11"/>
     <mergeCell ref="N12:X12"/>
@@ -1118,9 +1114,7 @@
     <mergeCell ref="N15:X15"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
